--- a/biology/Zoologie/Crocidurinae/Crocidurinae.xlsx
+++ b/biology/Zoologie/Crocidurinae/Crocidurinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crocidurinés, Musaraignes à dents blanches
-Les Crocidurinés[1], ou Crocidurinae, sont une sous-famille de la famille des  Soricidae qui regroupe les Musaraignes à dents blanches. En français, ces animaux sont appelés, selon les espèces, musaraignes, crocidures ou encore pachyures[2]. 
+Les Crocidurinés, ou Crocidurinae, sont une sous-famille de la famille des  Soricidae qui regroupe les Musaraignes à dents blanches. En français, ces animaux sont appelés, selon les espèces, musaraignes, crocidures ou encore pachyures. 
 </t>
         </is>
       </c>
@@ -512,17 +524,19 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (30 mars 2010)[3] et Mammal Species of the World (version 3, 2005)  (30 mars 2010)[4] :
-genre Crocidura Wagler, 1832 - crocidures et musaraignes[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (30 mars 2010) et Mammal Species of the World (version 3, 2005)  (30 mars 2010) :
+genre Crocidura Wagler, 1832 - crocidures et musaraignes
 genre Diplomesodon Brandt, 1852 (monospécifique)
 genre Feroculus Kelaart, 1852 (monospécifique)
 genre Paracrocidura Heim de Balsac, 1956
 genre Ruwenzorisorex Hutterer, 1986 (monospécifique)
 genre Scutisorex Thomas, 1913 (monospécifique)
 genre Solisorex Thomas, 1924 (monospécifique)
-genre Suncus Ehrenberg, 1832 - crocidures, pachyures et musaraignes[2]
+genre Suncus Ehrenberg, 1832 - crocidures, pachyures et musaraignes
 genre Sylvisorex Thomas, 1904</t>
         </is>
       </c>
